--- a/CGPA Calculator sem_6.xlsx
+++ b/CGPA Calculator sem_6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studies\6th Sem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC7A721-4126-439D-9F48-3123B57CF008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDC72D0-385C-482E-BB5A-A14E74043C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1142,19 +1142,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1331,25 +1318,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1371,31 +1373,28 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1555,13 +1554,13 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1579,7 +1578,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1611,6 +1610,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1629,12 +1637,77 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1659,13 +1732,16 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1674,7 +1750,7 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1683,7 +1759,7 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1692,105 +1768,34 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2288,8 +2293,8 @@
   </sheetPr>
   <dimension ref="A1:AC113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66:F66"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2304,35 +2309,35 @@
     <col min="9" max="9" width="23.140625" style="8" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="8"/>
     <col min="11" max="11" width="15.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="8"/>
     <col min="14" max="14" width="25.85546875" style="8" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="11.140625" style="8" hidden="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="132" t="s">
+    <row r="1" spans="1:29" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="140"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="118"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
@@ -2346,24 +2351,24 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" spans="1:29" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="133"/>
-      <c r="B2" s="138"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="140"/>
+    <row r="2" spans="1:29" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="109"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="118"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
@@ -2377,24 +2382,24 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" spans="1:29" s="16" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="133"/>
-      <c r="B3" s="141"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="142"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="142"/>
-      <c r="Q3" s="143"/>
+    <row r="3" spans="1:29" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="109"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="120"/>
+      <c r="Q3" s="121"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
@@ -2408,26 +2413,26 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" spans="1:29" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="133"/>
-      <c r="B4" s="135" t="s">
+    <row r="4" spans="1:29" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="109"/>
+      <c r="B4" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
-      <c r="M4" s="136"/>
-      <c r="N4" s="136"/>
-      <c r="O4" s="136"/>
-      <c r="P4" s="136"/>
-      <c r="Q4" s="137"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="114"/>
+      <c r="O4" s="114"/>
+      <c r="P4" s="114"/>
+      <c r="Q4" s="115"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
@@ -2441,24 +2446,24 @@
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
     </row>
-    <row r="5" spans="1:29" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="133"/>
-      <c r="B5" s="135"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136"/>
-      <c r="M5" s="136"/>
-      <c r="N5" s="136"/>
-      <c r="O5" s="136"/>
-      <c r="P5" s="136"/>
-      <c r="Q5" s="137"/>
+    <row r="5" spans="1:29" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="109"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="114"/>
+      <c r="O5" s="114"/>
+      <c r="P5" s="114"/>
+      <c r="Q5" s="115"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
@@ -2472,24 +2477,24 @@
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
     </row>
-    <row r="6" spans="1:29" s="17" customFormat="1" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="134"/>
-      <c r="B6" s="135"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
-      <c r="O6" s="136"/>
-      <c r="P6" s="136"/>
-      <c r="Q6" s="137"/>
+    <row r="6" spans="1:29" s="16" customFormat="1" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="110"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114"/>
+      <c r="Q6" s="115"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
@@ -2504,89 +2509,89 @@
       <c r="AC6" s="4"/>
     </row>
     <row r="7" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O7" s="19"/>
-      <c r="Q7" s="20"/>
+      <c r="O7" s="18"/>
+      <c r="Q7" s="19"/>
     </row>
     <row r="8" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="21"/>
-      <c r="C8" s="102" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="125" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="Q8" s="20"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="Q8" s="19"/>
     </row>
     <row r="9" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="21"/>
-      <c r="C9" s="99" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="20"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="19"/>
     </row>
     <row r="10" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="21"/>
-      <c r="C10" s="71" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="86" t="s">
+      <c r="G10" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="26" t="s">
+      <c r="H10" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="33"/>
-      <c r="K10" s="97" t="s">
+      <c r="J10" s="32"/>
+      <c r="K10" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="98"/>
-      <c r="M10" s="21"/>
-      <c r="Q10" s="20"/>
+      <c r="L10" s="112"/>
+      <c r="M10" s="20"/>
+      <c r="Q10" s="19"/>
     </row>
     <row r="11" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
-      <c r="C11" s="34" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="35">
         <v>4</v>
       </c>
-      <c r="F11" s="77"/>
+      <c r="F11" s="76"/>
       <c r="G11" s="9">
         <f>IF(AND(F11="u",F11="U"),0,E11)</f>
         <v>4</v>
@@ -2599,31 +2604,31 @@
         <f>PRODUCT(E11,H11)</f>
         <v>4</v>
       </c>
-      <c r="J11" s="33"/>
-      <c r="K11" s="13" t="s">
+      <c r="J11" s="32"/>
+      <c r="K11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="L11" s="73">
+      <c r="L11" s="72">
         <f>ROUND(I21/G21,2)</f>
         <v>1</v>
       </c>
-      <c r="M11" s="21"/>
-      <c r="N11" s="37"/>
-      <c r="Q11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="36"/>
+      <c r="Q11" s="19"/>
     </row>
     <row r="12" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="85" t="s">
+      <c r="D12" s="84" t="s">
         <v>65</v>
       </c>
       <c r="E12" s="5">
         <v>4</v>
       </c>
-      <c r="F12" s="77"/>
+      <c r="F12" s="76"/>
       <c r="G12" s="9">
         <f t="shared" ref="G12:G14" si="0">IF(AND(F12="u",F12="U"),0,E12)</f>
         <v>4</v>
@@ -2636,30 +2641,30 @@
         <f>PRODUCT(E12,H12)</f>
         <v>4</v>
       </c>
-      <c r="J12" s="33"/>
-      <c r="K12" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="74">
+      <c r="J12" s="32"/>
+      <c r="K12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="73">
         <f>ROUND(I33/G33,2)</f>
         <v>1</v>
       </c>
-      <c r="M12" s="21"/>
-      <c r="N12" s="39"/>
-      <c r="Q12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="38"/>
+      <c r="Q12" s="19"/>
     </row>
     <row r="13" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="21"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="85" t="s">
+      <c r="D13" s="84" t="s">
         <v>66</v>
       </c>
       <c r="E13" s="5">
         <v>3</v>
       </c>
-      <c r="F13" s="77"/>
+      <c r="F13" s="76"/>
       <c r="G13" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2672,30 +2677,30 @@
         <f>PRODUCT(E13,H13)</f>
         <v>3</v>
       </c>
-      <c r="J13" s="33"/>
-      <c r="K13" s="14" t="s">
+      <c r="J13" s="32"/>
+      <c r="K13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L13" s="74">
+      <c r="L13" s="73">
         <f>ROUND(I46/G46,2)</f>
         <v>1</v>
       </c>
-      <c r="M13" s="21"/>
-      <c r="N13" s="39"/>
-      <c r="Q13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="38"/>
+      <c r="Q13" s="19"/>
     </row>
     <row r="14" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="21"/>
-      <c r="C14" s="40" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="85" t="s">
+      <c r="D14" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="42">
-        <v>3</v>
-      </c>
-      <c r="F14" s="77"/>
+      <c r="E14" s="41">
+        <v>3</v>
+      </c>
+      <c r="F14" s="76"/>
       <c r="G14" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2708,78 +2713,78 @@
         <f>PRODUCT(E14,H14)</f>
         <v>3</v>
       </c>
-      <c r="J14" s="33"/>
-      <c r="K14" s="14" t="s">
+      <c r="J14" s="32"/>
+      <c r="K14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="74">
+      <c r="L14" s="73">
         <f>ROUND(I59/G59,2)</f>
         <v>1</v>
       </c>
-      <c r="M14" s="21"/>
-      <c r="N14" s="39"/>
-      <c r="Q14" s="20"/>
-    </row>
-    <row r="15" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="21"/>
-      <c r="C15" s="107" t="s">
+      <c r="M14" s="20"/>
+      <c r="N14" s="38"/>
+      <c r="Q14" s="19"/>
+    </row>
+    <row r="15" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="20"/>
+      <c r="C15" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="126"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="12" t="s">
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="149"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="L15" s="74">
+      <c r="L15" s="73">
         <f>ROUND(I71/G71,2)</f>
         <v>1</v>
       </c>
-      <c r="M15" s="21"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="19"/>
     </row>
     <row r="16" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="21"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="12" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="150" t="s">
         <v>130</v>
       </c>
-      <c r="L16" s="74">
+      <c r="L16" s="151">
         <f>ROUND(I86/G86,2)</f>
         <v>1</v>
       </c>
-      <c r="M16" s="21"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="19"/>
     </row>
     <row r="17" spans="1:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="21"/>
-      <c r="C17" s="34" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="85" t="s">
+      <c r="D17" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="35">
         <v>1.5</v>
       </c>
-      <c r="F17" s="77"/>
+      <c r="F17" s="76"/>
       <c r="G17" s="9">
         <f>IF(AND(F17="u",F17="U"),0,E17)</f>
         <v>1.5</v>
@@ -2792,25 +2797,25 @@
         <f>PRODUCT(E17,H17)</f>
         <v>1.5</v>
       </c>
-      <c r="J17" s="33"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="20"/>
+      <c r="J17" s="32"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="19"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="21"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="85" t="s">
+      <c r="D18" s="84" t="s">
         <v>70</v>
       </c>
       <c r="E18" s="5">
         <v>2</v>
       </c>
-      <c r="F18" s="77"/>
+      <c r="F18" s="76"/>
       <c r="G18" s="9">
         <f t="shared" ref="G18:G20" si="1">IF(AND(F18="u",F18="U"),0,E18)</f>
         <v>2</v>
@@ -2823,32 +2828,32 @@
         <f t="shared" ref="I18:I20" si="2">PRODUCT(E18,H18)</f>
         <v>2</v>
       </c>
-      <c r="J18" s="33"/>
-      <c r="K18" s="121" t="s">
+      <c r="J18" s="32"/>
+      <c r="K18" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="127">
+      <c r="L18" s="103">
         <f>ROUND(AVERAGE(L11:L16),2)</f>
         <v>1</v>
       </c>
-      <c r="M18" s="21"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="19"/>
     </row>
     <row r="19" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="21"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="85" t="s">
+      <c r="D19" s="84" t="s">
         <v>71</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
       </c>
-      <c r="F19" s="77"/>
+      <c r="F19" s="76"/>
       <c r="G19" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -2861,31 +2866,31 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J19" s="33"/>
-      <c r="K19" s="122"/>
-      <c r="L19" s="128"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="43" t="s">
+      <c r="J19" s="32"/>
+      <c r="K19" s="145"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="O19" s="44" t="s">
+      <c r="O19" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="P19" s="83"/>
-      <c r="Q19" s="20"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="19"/>
     </row>
     <row r="20" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="21"/>
-      <c r="C20" s="45" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="47">
-        <v>1</v>
-      </c>
-      <c r="F20" s="79"/>
+      <c r="E20" s="46">
+        <v>1</v>
+      </c>
+      <c r="F20" s="78"/>
       <c r="G20" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -2898,33 +2903,33 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J20" s="33"/>
-      <c r="K20" s="121" t="s">
+      <c r="J20" s="32"/>
+      <c r="K20" s="144" t="s">
         <v>114</v>
       </c>
-      <c r="L20" s="123" t="str">
+      <c r="L20" s="146" t="str">
         <f>_xlfn.CONCAT(AVERAGE(L11:L15)*10,"%")</f>
         <v>10%</v>
       </c>
-      <c r="M20" s="21"/>
-      <c r="N20" s="48" t="s">
+      <c r="M20" s="20"/>
+      <c r="N20" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="O20" s="49">
+      <c r="O20" s="48">
         <v>10</v>
       </c>
-      <c r="P20" s="83"/>
-      <c r="Q20" s="20"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="19"/>
     </row>
     <row r="21" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="21"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="50"/>
       <c r="E21" s="1">
         <f>SUM(E11:E20)</f>
         <v>19.5</v>
       </c>
-      <c r="F21" s="50"/>
+      <c r="F21" s="49"/>
       <c r="G21" s="1">
         <f>SUM(G11:G20)</f>
         <v>19.5</v>
@@ -2937,90 +2942,90 @@
         <f>SUM(I11:I20)</f>
         <v>19.5</v>
       </c>
-      <c r="J21" s="33"/>
-      <c r="K21" s="122"/>
-      <c r="L21" s="124"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="48" t="s">
+      <c r="J21" s="32"/>
+      <c r="K21" s="145"/>
+      <c r="L21" s="147"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="O21" s="49">
+      <c r="O21" s="48">
         <v>10</v>
       </c>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="20"/>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="19"/>
     </row>
     <row r="22" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="21"/>
-      <c r="C22" s="129" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="130"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="28"/>
-      <c r="N22" s="48" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="27"/>
+      <c r="N22" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="O22" s="49">
+      <c r="O22" s="48">
         <v>9</v>
       </c>
-      <c r="P22" s="83"/>
-      <c r="Q22" s="20"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="19"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="21"/>
-      <c r="C23" s="69" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="70" t="s">
+      <c r="D23" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="70" t="s">
+      <c r="E23" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="F23" s="53" t="s">
+      <c r="F23" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="86" t="s">
+      <c r="G23" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="H23" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="I23" s="26" t="s">
+      <c r="H23" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="33"/>
-      <c r="K23" s="97" t="s">
+      <c r="J23" s="32"/>
+      <c r="K23" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="L23" s="98"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="48" t="s">
+      <c r="L23" s="112"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="O23" s="49">
+      <c r="O23" s="48">
         <v>9</v>
       </c>
-      <c r="P23" s="83"/>
-      <c r="Q23" s="20"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="19"/>
     </row>
     <row r="24" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="21"/>
-      <c r="C24" s="34" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="85" t="s">
+      <c r="D24" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="36">
-        <v>3</v>
-      </c>
-      <c r="F24" s="77"/>
+      <c r="E24" s="35">
+        <v>3</v>
+      </c>
+      <c r="F24" s="76"/>
       <c r="G24" s="9">
         <f t="shared" ref="G24:G28" si="3">IF(AND(F24="u",F24="U"),0,E24)</f>
         <v>3</v>
@@ -3033,35 +3038,35 @@
         <f>PRODUCT(E24,H24)</f>
         <v>3</v>
       </c>
-      <c r="J24" s="33"/>
-      <c r="K24" s="13" t="s">
+      <c r="J24" s="32"/>
+      <c r="K24" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="L24" s="75">
+      <c r="L24" s="74">
         <v>10</v>
       </c>
-      <c r="M24" s="21"/>
-      <c r="N24" s="48" t="s">
+      <c r="M24" s="20"/>
+      <c r="N24" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="O24" s="49">
+      <c r="O24" s="48">
         <v>8</v>
       </c>
-      <c r="P24" s="83"/>
-      <c r="Q24" s="20"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="19"/>
     </row>
     <row r="25" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="21"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="85" t="s">
+      <c r="D25" s="84" t="s">
         <v>74</v>
       </c>
       <c r="E25" s="5">
         <v>4</v>
       </c>
-      <c r="F25" s="77"/>
+      <c r="F25" s="76"/>
       <c r="G25" s="9">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3074,35 +3079,35 @@
         <f>PRODUCT(E25,H25)</f>
         <v>4</v>
       </c>
-      <c r="J25" s="33"/>
-      <c r="K25" s="13" t="s">
+      <c r="J25" s="32"/>
+      <c r="K25" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="L25" s="75">
+      <c r="L25" s="74">
         <v>9</v>
       </c>
-      <c r="M25" s="21"/>
-      <c r="N25" s="48" t="s">
+      <c r="M25" s="20"/>
+      <c r="N25" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="O25" s="49">
+      <c r="O25" s="48">
         <v>8</v>
       </c>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="20"/>
+      <c r="P25" s="82"/>
+      <c r="Q25" s="19"/>
     </row>
     <row r="26" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="21"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="85" t="s">
+      <c r="D26" s="84" t="s">
         <v>75</v>
       </c>
       <c r="E26" s="5">
         <v>4</v>
       </c>
-      <c r="F26" s="77"/>
+      <c r="F26" s="76"/>
       <c r="G26" s="9">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3115,36 +3120,36 @@
         <f>PRODUCT(E26,H26)</f>
         <v>4</v>
       </c>
-      <c r="J26" s="33"/>
-      <c r="K26" s="13" t="s">
+      <c r="J26" s="32"/>
+      <c r="K26" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="L26" s="75">
+      <c r="L26" s="74">
         <v>8</v>
       </c>
-      <c r="M26" s="21"/>
-      <c r="N26" s="48" t="s">
+      <c r="M26" s="20"/>
+      <c r="N26" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="O26" s="49">
+      <c r="O26" s="48">
         <v>7</v>
       </c>
-      <c r="P26" s="83"/>
-      <c r="Q26" s="20"/>
+      <c r="P26" s="82"/>
+      <c r="Q26" s="19"/>
     </row>
     <row r="27" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="54"/>
-      <c r="B27" s="21"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="85" t="s">
+      <c r="D27" s="84" t="s">
         <v>76</v>
       </c>
       <c r="E27" s="5">
         <v>4</v>
       </c>
-      <c r="F27" s="77"/>
+      <c r="F27" s="76"/>
       <c r="G27" s="9">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3157,35 +3162,35 @@
         <f>PRODUCT(E27,H27)</f>
         <v>4</v>
       </c>
-      <c r="J27" s="33"/>
-      <c r="K27" s="13" t="s">
+      <c r="J27" s="32"/>
+      <c r="K27" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="L27" s="75">
+      <c r="L27" s="74">
         <v>7</v>
       </c>
-      <c r="M27" s="21"/>
-      <c r="N27" s="48" t="s">
+      <c r="M27" s="20"/>
+      <c r="N27" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="O27" s="49">
+      <c r="O27" s="48">
         <v>7</v>
       </c>
-      <c r="P27" s="83"/>
-      <c r="Q27" s="20"/>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="19"/>
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="21"/>
-      <c r="C28" s="40" t="s">
+      <c r="B28" s="20"/>
+      <c r="C28" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="85" t="s">
+      <c r="D28" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="42">
-        <v>3</v>
-      </c>
-      <c r="F28" s="77"/>
+      <c r="E28" s="41">
+        <v>3</v>
+      </c>
+      <c r="F28" s="76"/>
       <c r="G28" s="9">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -3198,83 +3203,83 @@
         <f>PRODUCT(E28,H28)</f>
         <v>3</v>
       </c>
-      <c r="J28" s="33"/>
-      <c r="K28" s="13" t="s">
+      <c r="J28" s="32"/>
+      <c r="K28" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="L28" s="75">
+      <c r="L28" s="74">
         <v>6</v>
       </c>
-      <c r="M28" s="21"/>
-      <c r="N28" s="48" t="s">
+      <c r="M28" s="20"/>
+      <c r="N28" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="O28" s="49">
+      <c r="O28" s="48">
         <v>6</v>
       </c>
-      <c r="P28" s="83"/>
-      <c r="Q28" s="20"/>
+      <c r="P28" s="82"/>
+      <c r="Q28" s="19"/>
     </row>
     <row r="29" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="21"/>
-      <c r="C29" s="113" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="120"/>
-      <c r="I29" s="120"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="80" t="s">
+      <c r="D29" s="137"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="L29" s="81">
+      <c r="L29" s="80">
         <v>0</v>
       </c>
-      <c r="M29" s="21"/>
-      <c r="N29" s="48" t="s">
+      <c r="M29" s="20"/>
+      <c r="N29" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="O29" s="49">
+      <c r="O29" s="48">
         <v>6</v>
       </c>
-      <c r="P29" s="83"/>
-      <c r="Q29" s="20"/>
+      <c r="P29" s="82"/>
+      <c r="Q29" s="19"/>
     </row>
     <row r="30" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="21"/>
-      <c r="C30" s="116"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="118"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="120"/>
-      <c r="I30" s="120"/>
-      <c r="J30" s="33"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="48" t="s">
+      <c r="B30" s="20"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="140"/>
+      <c r="E30" s="140"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="143"/>
+      <c r="I30" s="143"/>
+      <c r="J30" s="32"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="O30" s="49">
+      <c r="O30" s="48">
         <v>0</v>
       </c>
-      <c r="P30" s="83"/>
-      <c r="Q30" s="20"/>
+      <c r="P30" s="82"/>
+      <c r="Q30" s="19"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="21"/>
-      <c r="C31" s="34" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="85" t="s">
+      <c r="D31" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="36">
-        <v>1</v>
-      </c>
-      <c r="F31" s="77"/>
+      <c r="E31" s="35">
+        <v>1</v>
+      </c>
+      <c r="F31" s="76"/>
       <c r="G31" s="9">
         <f t="shared" ref="G31:G32" si="4">IF(AND(F31="u",F31="U"),0,E31)</f>
         <v>1</v>
@@ -3287,29 +3292,29 @@
         <f>PRODUCT(E31,H31)</f>
         <v>1</v>
       </c>
-      <c r="J31" s="33"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="48" t="s">
+      <c r="J31" s="32"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="O31" s="49">
+      <c r="O31" s="48">
         <v>0</v>
       </c>
-      <c r="P31" s="83"/>
-      <c r="Q31" s="20"/>
+      <c r="P31" s="82"/>
+      <c r="Q31" s="19"/>
     </row>
     <row r="32" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="21"/>
-      <c r="C32" s="45" t="s">
+      <c r="B32" s="20"/>
+      <c r="C32" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="46" t="s">
+      <c r="D32" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="47">
+      <c r="E32" s="46">
         <v>1.5</v>
       </c>
-      <c r="F32" s="79"/>
+      <c r="F32" s="78"/>
       <c r="G32" s="9">
         <f t="shared" si="4"/>
         <v>1.5</v>
@@ -3322,101 +3327,101 @@
         <f>PRODUCT(E32,H32)</f>
         <v>1.5</v>
       </c>
-      <c r="J32" s="33"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="83"/>
-      <c r="O32" s="83"/>
-      <c r="P32" s="83"/>
-      <c r="Q32" s="20"/>
+      <c r="J32" s="32"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="82"/>
+      <c r="O32" s="82"/>
+      <c r="P32" s="82"/>
+      <c r="Q32" s="19"/>
     </row>
     <row r="33" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="21"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="56">
+      <c r="B33" s="20"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="55">
         <f>SUM(E24:E32)</f>
         <v>20.5</v>
       </c>
-      <c r="F33" s="50"/>
+      <c r="F33" s="49"/>
       <c r="G33" s="1">
         <f>SUM(G24:G32)</f>
         <v>20.5</v>
       </c>
-      <c r="H33" s="57">
+      <c r="H33" s="56">
         <f>SUM(H24:H32)</f>
         <v>0</v>
       </c>
-      <c r="I33" s="57">
+      <c r="I33" s="56">
         <f>SUM(I24:I32)</f>
         <v>20.5</v>
       </c>
-      <c r="J33" s="33"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="83"/>
-      <c r="O33" s="83"/>
-      <c r="P33" s="83"/>
-      <c r="Q33" s="20"/>
+      <c r="J33" s="32"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="82"/>
+      <c r="O33" s="82"/>
+      <c r="P33" s="82"/>
+      <c r="Q33" s="19"/>
     </row>
     <row r="34" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="21"/>
-      <c r="C34" s="91" t="s">
+      <c r="B34" s="20"/>
+      <c r="C34" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="33"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="83"/>
-      <c r="O34" s="83"/>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="20"/>
+      <c r="D34" s="128"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="129"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="32"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="82"/>
+      <c r="O34" s="82"/>
+      <c r="P34" s="82"/>
+      <c r="Q34" s="19"/>
     </row>
     <row r="35" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="21"/>
-      <c r="C35" s="67" t="s">
+      <c r="B35" s="20"/>
+      <c r="C35" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="68" t="s">
+      <c r="D35" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="68" t="s">
+      <c r="E35" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="F35" s="58" t="s">
+      <c r="F35" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="G35" s="86" t="s">
+      <c r="G35" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="H35" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="I35" s="26" t="s">
+      <c r="H35" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="33"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="83"/>
-      <c r="O35" s="83"/>
-      <c r="P35" s="83"/>
-      <c r="Q35" s="20"/>
+      <c r="J35" s="32"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="19"/>
     </row>
     <row r="36" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="21"/>
-      <c r="C36" s="34" t="s">
+      <c r="B36" s="20"/>
+      <c r="C36" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="85" t="s">
+      <c r="D36" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="36">
+      <c r="E36" s="35">
         <v>4</v>
       </c>
-      <c r="F36" s="77"/>
+      <c r="F36" s="76"/>
       <c r="G36" s="9">
         <f t="shared" ref="G36:G45" si="5">IF(AND(F36="u",F36="U"),0,E36)</f>
         <v>4</v>
@@ -3429,27 +3434,27 @@
         <f t="shared" ref="I36:I41" si="6">PRODUCT(E36,H36)</f>
         <v>4</v>
       </c>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="83"/>
-      <c r="O36" s="83"/>
-      <c r="P36" s="83"/>
-      <c r="Q36" s="20"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="82"/>
+      <c r="O36" s="82"/>
+      <c r="P36" s="82"/>
+      <c r="Q36" s="19"/>
     </row>
     <row r="37" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="21"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="85" t="s">
+      <c r="D37" s="84" t="s">
         <v>9</v>
       </c>
       <c r="E37" s="5">
         <v>4</v>
       </c>
-      <c r="F37" s="77"/>
+      <c r="F37" s="76"/>
       <c r="G37" s="9">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -3462,27 +3467,27 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="83"/>
-      <c r="O37" s="83"/>
-      <c r="P37" s="83"/>
-      <c r="Q37" s="20"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="82"/>
+      <c r="O37" s="82"/>
+      <c r="P37" s="82"/>
+      <c r="Q37" s="19"/>
     </row>
     <row r="38" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="21"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="85" t="s">
+      <c r="D38" s="84" t="s">
         <v>10</v>
       </c>
       <c r="E38" s="5">
         <v>4</v>
       </c>
-      <c r="F38" s="77"/>
+      <c r="F38" s="76"/>
       <c r="G38" s="9">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -3495,27 +3500,27 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="83"/>
-      <c r="O38" s="83"/>
-      <c r="P38" s="83"/>
-      <c r="Q38" s="20"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="82"/>
+      <c r="O38" s="82"/>
+      <c r="P38" s="82"/>
+      <c r="Q38" s="19"/>
     </row>
     <row r="39" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="21"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="85" t="s">
+      <c r="D39" s="84" t="s">
         <v>11</v>
       </c>
       <c r="E39" s="5">
         <v>3</v>
       </c>
-      <c r="F39" s="77"/>
+      <c r="F39" s="76"/>
       <c r="G39" s="9">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -3528,27 +3533,27 @@
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="83"/>
-      <c r="O39" s="83"/>
-      <c r="P39" s="83"/>
-      <c r="Q39" s="20"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="82"/>
+      <c r="O39" s="82"/>
+      <c r="P39" s="82"/>
+      <c r="Q39" s="19"/>
     </row>
     <row r="40" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="21"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="85" t="s">
+      <c r="D40" s="84" t="s">
         <v>12</v>
       </c>
       <c r="E40" s="5">
         <v>3</v>
       </c>
-      <c r="F40" s="77"/>
+      <c r="F40" s="76"/>
       <c r="G40" s="9">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -3561,27 +3566,27 @@
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="83"/>
-      <c r="O40" s="83"/>
-      <c r="P40" s="83"/>
-      <c r="Q40" s="20"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="82"/>
+      <c r="O40" s="82"/>
+      <c r="P40" s="82"/>
+      <c r="Q40" s="19"/>
     </row>
     <row r="41" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="21"/>
-      <c r="C41" s="40" t="s">
+      <c r="B41" s="20"/>
+      <c r="C41" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="85" t="s">
+      <c r="D41" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="42">
-        <v>3</v>
-      </c>
-      <c r="F41" s="77"/>
+      <c r="E41" s="41">
+        <v>3</v>
+      </c>
+      <c r="F41" s="76"/>
       <c r="G41" s="9">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -3594,47 +3599,47 @@
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="83"/>
-      <c r="O41" s="83"/>
-      <c r="P41" s="83"/>
-      <c r="Q41" s="20"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="82"/>
+      <c r="O41" s="82"/>
+      <c r="P41" s="82"/>
+      <c r="Q41" s="19"/>
     </row>
     <row r="42" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="21"/>
-      <c r="C42" s="94" t="s">
+      <c r="B42" s="20"/>
+      <c r="C42" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="86"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="98"/>
+      <c r="G42" s="85"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="83"/>
-      <c r="O42" s="83"/>
-      <c r="P42" s="83"/>
-      <c r="Q42" s="20"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="82"/>
+      <c r="O42" s="82"/>
+      <c r="P42" s="82"/>
+      <c r="Q42" s="19"/>
     </row>
     <row r="43" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="21"/>
-      <c r="C43" s="34" t="s">
+      <c r="B43" s="20"/>
+      <c r="C43" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="35" t="s">
+      <c r="D43" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E43" s="36">
-        <v>1</v>
-      </c>
-      <c r="F43" s="77"/>
+      <c r="E43" s="35">
+        <v>1</v>
+      </c>
+      <c r="F43" s="76"/>
       <c r="G43" s="9">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -3647,27 +3652,27 @@
         <f t="shared" ref="I43:I45" si="7">PRODUCT(E43,H43)</f>
         <v>1</v>
       </c>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="83"/>
-      <c r="O43" s="83"/>
-      <c r="P43" s="83"/>
-      <c r="Q43" s="20"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="82"/>
+      <c r="O43" s="82"/>
+      <c r="P43" s="82"/>
+      <c r="Q43" s="19"/>
     </row>
     <row r="44" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="21"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="38" t="s">
+      <c r="D44" s="37" t="s">
         <v>15</v>
       </c>
       <c r="E44" s="5">
         <v>1</v>
       </c>
-      <c r="F44" s="77"/>
+      <c r="F44" s="76"/>
       <c r="G44" s="9">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -3680,27 +3685,27 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="83"/>
-      <c r="O44" s="83"/>
-      <c r="P44" s="83"/>
-      <c r="Q44" s="20"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="82"/>
+      <c r="O44" s="82"/>
+      <c r="P44" s="82"/>
+      <c r="Q44" s="19"/>
     </row>
     <row r="45" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
-      <c r="C45" s="45" t="s">
+      <c r="B45" s="20"/>
+      <c r="C45" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="46" t="s">
+      <c r="D45" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="47">
-        <v>1</v>
-      </c>
-      <c r="F45" s="79"/>
+      <c r="E45" s="46">
+        <v>1</v>
+      </c>
+      <c r="F45" s="78"/>
       <c r="G45" s="9">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -3713,99 +3718,99 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33" t="s">
+      <c r="J45" s="32"/>
+      <c r="K45" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="L45" s="59"/>
-      <c r="M45" s="21"/>
-      <c r="Q45" s="20"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="20"/>
+      <c r="Q45" s="19"/>
     </row>
     <row r="46" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="51"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="50"/>
       <c r="E46" s="1">
         <f>SUM(E36:E45)</f>
         <v>24</v>
       </c>
-      <c r="F46" s="50"/>
+      <c r="F46" s="49"/>
       <c r="G46" s="1">
         <f>SUM(G36:G45)</f>
         <v>24</v>
       </c>
-      <c r="H46" s="57">
+      <c r="H46" s="56">
         <f>SUM(H36:H45)</f>
         <v>0</v>
       </c>
-      <c r="I46" s="57">
+      <c r="I46" s="56">
         <f>SUM(I36:I45)</f>
         <v>24</v>
       </c>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="59"/>
-      <c r="M46" s="21"/>
-      <c r="Q46" s="20"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="20"/>
+      <c r="Q46" s="19"/>
     </row>
     <row r="47" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="21"/>
-      <c r="C47" s="91" t="s">
+      <c r="B47" s="20"/>
+      <c r="C47" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="92"/>
-      <c r="E47" s="92"/>
-      <c r="F47" s="93"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="59"/>
-      <c r="M47" s="21"/>
-      <c r="Q47" s="20"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="58"/>
+      <c r="M47" s="20"/>
+      <c r="Q47" s="19"/>
     </row>
     <row r="48" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="21"/>
-      <c r="C48" s="67" t="s">
+      <c r="B48" s="20"/>
+      <c r="C48" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="68" t="s">
+      <c r="D48" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="E48" s="68" t="s">
+      <c r="E48" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="F48" s="58" t="s">
+      <c r="F48" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="G48" s="86" t="s">
+      <c r="G48" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="H48" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="I48" s="26" t="s">
+      <c r="H48" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I48" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="59"/>
-      <c r="M48" s="21"/>
-      <c r="Q48" s="20"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="58"/>
+      <c r="M48" s="20"/>
+      <c r="Q48" s="19"/>
     </row>
     <row r="49" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B49" s="21"/>
-      <c r="C49" s="34" t="s">
+      <c r="B49" s="20"/>
+      <c r="C49" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="35" t="s">
+      <c r="D49" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="E49" s="36">
-        <v>3</v>
-      </c>
-      <c r="F49" s="76"/>
+      <c r="E49" s="35">
+        <v>3</v>
+      </c>
+      <c r="F49" s="75"/>
       <c r="G49" s="9">
         <f t="shared" ref="G49:G53" si="8">IF(AND(F49="u",F49="U"),0,E49)</f>
         <v>3</v>
@@ -3818,24 +3823,24 @@
         <f t="shared" ref="I49:I58" si="9">PRODUCT(E49,H49)</f>
         <v>3</v>
       </c>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="59"/>
-      <c r="M49" s="21"/>
-      <c r="Q49" s="20"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="20"/>
+      <c r="Q49" s="19"/>
     </row>
     <row r="50" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="21"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="38" t="s">
+      <c r="D50" s="37" t="s">
         <v>49</v>
       </c>
       <c r="E50" s="5">
         <v>3</v>
       </c>
-      <c r="F50" s="77"/>
+      <c r="F50" s="76"/>
       <c r="G50" s="9">
         <f t="shared" si="8"/>
         <v>3</v>
@@ -3848,24 +3853,24 @@
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="J50" s="33"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="59"/>
-      <c r="M50" s="21"/>
-      <c r="Q50" s="20"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="58"/>
+      <c r="M50" s="20"/>
+      <c r="Q50" s="19"/>
     </row>
     <row r="51" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="21"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="38" t="s">
+      <c r="D51" s="37" t="s">
         <v>51</v>
       </c>
       <c r="E51" s="5">
         <v>3</v>
       </c>
-      <c r="F51" s="77"/>
+      <c r="F51" s="76"/>
       <c r="G51" s="9">
         <f t="shared" si="8"/>
         <v>3</v>
@@ -3878,24 +3883,24 @@
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="59"/>
-      <c r="M51" s="21"/>
-      <c r="Q51" s="20"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="58"/>
+      <c r="M51" s="20"/>
+      <c r="Q51" s="19"/>
     </row>
     <row r="52" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="21"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="38" t="s">
+      <c r="D52" s="37" t="s">
         <v>53</v>
       </c>
       <c r="E52" s="5">
         <v>3</v>
       </c>
-      <c r="F52" s="77"/>
+      <c r="F52" s="76"/>
       <c r="G52" s="9">
         <f t="shared" si="8"/>
         <v>3</v>
@@ -3908,24 +3913,24 @@
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="59"/>
-      <c r="M52" s="21"/>
-      <c r="Q52" s="20"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="58"/>
+      <c r="M52" s="20"/>
+      <c r="Q52" s="19"/>
     </row>
     <row r="53" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="21"/>
-      <c r="C53" s="40" t="s">
+      <c r="B53" s="20"/>
+      <c r="C53" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D53" s="41" t="s">
+      <c r="D53" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E53" s="42">
-        <v>3</v>
-      </c>
-      <c r="F53" s="78"/>
+      <c r="E53" s="41">
+        <v>3</v>
+      </c>
+      <c r="F53" s="77"/>
       <c r="G53" s="9">
         <f t="shared" si="8"/>
         <v>3</v>
@@ -3938,41 +3943,41 @@
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="59"/>
-      <c r="M53" s="21"/>
-      <c r="Q53" s="20"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="58"/>
+      <c r="M53" s="20"/>
+      <c r="Q53" s="19"/>
     </row>
     <row r="54" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="21"/>
-      <c r="C54" s="94" t="s">
+      <c r="B54" s="20"/>
+      <c r="C54" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="95"/>
-      <c r="E54" s="95"/>
-      <c r="F54" s="96"/>
-      <c r="G54" s="86"/>
+      <c r="D54" s="97"/>
+      <c r="E54" s="97"/>
+      <c r="F54" s="98"/>
+      <c r="G54" s="85"/>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="59"/>
-      <c r="M54" s="21"/>
-      <c r="Q54" s="20"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="58"/>
+      <c r="M54" s="20"/>
+      <c r="Q54" s="19"/>
     </row>
     <row r="55" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="21"/>
-      <c r="C55" s="34" t="s">
+      <c r="B55" s="20"/>
+      <c r="C55" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="35" t="s">
+      <c r="D55" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="E55" s="36">
-        <v>1</v>
-      </c>
-      <c r="F55" s="77"/>
+      <c r="E55" s="35">
+        <v>1</v>
+      </c>
+      <c r="F55" s="76"/>
       <c r="G55" s="9">
         <f t="shared" ref="G55:G58" si="10">IF(AND(F55="u",F55="U"),0,E55)</f>
         <v>1</v>
@@ -3985,24 +3990,24 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="59"/>
-      <c r="M55" s="21"/>
-      <c r="Q55" s="20"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="58"/>
+      <c r="M55" s="20"/>
+      <c r="Q55" s="19"/>
     </row>
     <row r="56" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="21"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="38" t="s">
+      <c r="D56" s="37" t="s">
         <v>59</v>
       </c>
       <c r="E56" s="5">
         <v>1</v>
       </c>
-      <c r="F56" s="77"/>
+      <c r="F56" s="76"/>
       <c r="G56" s="9">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -4015,14 +4020,14 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="59"/>
-      <c r="M56" s="21"/>
-      <c r="Q56" s="20"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="58"/>
+      <c r="M56" s="20"/>
+      <c r="Q56" s="19"/>
     </row>
     <row r="57" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B57" s="21"/>
+      <c r="B57" s="20"/>
       <c r="C57" s="6" t="s">
         <v>60</v>
       </c>
@@ -4032,7 +4037,7 @@
       <c r="E57" s="5">
         <v>1</v>
       </c>
-      <c r="F57" s="77"/>
+      <c r="F57" s="76"/>
       <c r="G57" s="9">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -4045,24 +4050,24 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="59"/>
-      <c r="M57" s="21"/>
-      <c r="Q57" s="20"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="58"/>
+      <c r="M57" s="20"/>
+      <c r="Q57" s="19"/>
     </row>
     <row r="58" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="21"/>
-      <c r="C58" s="45" t="s">
+      <c r="B58" s="20"/>
+      <c r="C58" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="D58" s="46" t="s">
+      <c r="D58" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="E58" s="47">
-        <v>1</v>
-      </c>
-      <c r="F58" s="79"/>
+      <c r="E58" s="46">
+        <v>1</v>
+      </c>
+      <c r="F58" s="78"/>
       <c r="G58" s="9">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -4075,94 +4080,94 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="59"/>
-      <c r="M58" s="21"/>
-      <c r="Q58" s="20"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="58"/>
+      <c r="M58" s="20"/>
+      <c r="Q58" s="19"/>
     </row>
     <row r="59" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="21"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="51"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="50"/>
       <c r="E59" s="1">
         <f>SUM(E49:E58)</f>
         <v>19</v>
       </c>
-      <c r="F59" s="64"/>
+      <c r="F59" s="63"/>
       <c r="G59" s="1">
         <f>SUM(G49:G58)</f>
         <v>19</v>
       </c>
-      <c r="H59" s="57">
+      <c r="H59" s="56">
         <f>SUM(H49:H58)</f>
         <v>0</v>
       </c>
-      <c r="I59" s="57">
+      <c r="I59" s="56">
         <f>SUM(I49:I58)</f>
         <v>19</v>
       </c>
-      <c r="J59" s="33"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="63"/>
-      <c r="M59" s="21"/>
-      <c r="Q59" s="20"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="62"/>
+      <c r="M59" s="20"/>
+      <c r="Q59" s="19"/>
     </row>
     <row r="60" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="21"/>
-      <c r="C60" s="91" t="s">
+      <c r="B60" s="20"/>
+      <c r="C60" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="D60" s="92"/>
-      <c r="E60" s="92"/>
-      <c r="F60" s="93"/>
-      <c r="G60" s="60"/>
-      <c r="H60" s="61"/>
-      <c r="I60" s="62"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="63"/>
-      <c r="M60" s="21"/>
-      <c r="Q60" s="20"/>
+      <c r="D60" s="94"/>
+      <c r="E60" s="94"/>
+      <c r="F60" s="95"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="60"/>
+      <c r="I60" s="61"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="62"/>
+      <c r="M60" s="20"/>
+      <c r="Q60" s="19"/>
     </row>
     <row r="61" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="67" t="s">
+      <c r="C61" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="D61" s="68" t="s">
+      <c r="D61" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="68" t="s">
+      <c r="E61" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="F61" s="58" t="s">
+      <c r="F61" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="G61" s="86" t="s">
+      <c r="G61" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="H61" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="I61" s="26" t="s">
+      <c r="H61" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I61" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K61" s="21"/>
-      <c r="L61" s="63"/>
-      <c r="O61" s="18"/>
-      <c r="Q61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="62"/>
+      <c r="O61" s="17"/>
+      <c r="Q61" s="19"/>
     </row>
     <row r="62" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C62" s="34" t="s">
+      <c r="C62" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="D62" s="35" t="s">
+      <c r="D62" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="E62" s="36">
-        <v>3</v>
-      </c>
-      <c r="F62" s="77"/>
+      <c r="E62" s="35">
+        <v>3</v>
+      </c>
+      <c r="F62" s="76"/>
       <c r="G62" s="9">
         <f t="shared" ref="G62:G65" si="11">IF(AND(F62="u",F62="U"),0,E62)</f>
         <v>3</v>
@@ -4175,21 +4180,21 @@
         <f t="shared" ref="I62:I65" si="12">PRODUCT(E62,H62)</f>
         <v>3</v>
       </c>
-      <c r="K62" s="21"/>
-      <c r="L62" s="63"/>
-      <c r="Q62" s="20"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="62"/>
+      <c r="Q62" s="19"/>
     </row>
     <row r="63" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C63" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D63" s="38" t="s">
+      <c r="D63" s="37" t="s">
         <v>99</v>
       </c>
       <c r="E63" s="5">
         <v>3</v>
       </c>
-      <c r="F63" s="77"/>
+      <c r="F63" s="76"/>
       <c r="G63" s="9">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -4202,21 +4207,21 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="K63" s="21"/>
-      <c r="L63" s="63"/>
-      <c r="Q63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="62"/>
+      <c r="Q63" s="19"/>
     </row>
     <row r="64" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C64" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D64" s="38" t="s">
+      <c r="D64" s="37" t="s">
         <v>101</v>
       </c>
       <c r="E64" s="5">
         <v>3</v>
       </c>
-      <c r="F64" s="77"/>
+      <c r="F64" s="76"/>
       <c r="G64" s="9">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -4230,20 +4235,20 @@
         <v>3</v>
       </c>
       <c r="L64" s="8"/>
-      <c r="O64" s="18"/>
-      <c r="Q64" s="20"/>
+      <c r="O64" s="17"/>
+      <c r="Q64" s="19"/>
     </row>
     <row r="65" spans="3:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="40" t="s">
+      <c r="C65" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D65" s="84" t="s">
+      <c r="D65" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="E65" s="42">
-        <v>3</v>
-      </c>
-      <c r="F65" s="77"/>
+      <c r="E65" s="41">
+        <v>3</v>
+      </c>
+      <c r="F65" s="76"/>
       <c r="G65" s="9">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -4256,32 +4261,32 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="Q65" s="20"/>
+      <c r="Q65" s="19"/>
     </row>
     <row r="66" spans="3:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="94" t="s">
+      <c r="C66" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="D66" s="95"/>
-      <c r="E66" s="95"/>
-      <c r="F66" s="96"/>
-      <c r="G66" s="86"/>
+      <c r="D66" s="97"/>
+      <c r="E66" s="97"/>
+      <c r="F66" s="98"/>
+      <c r="G66" s="85"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
       <c r="L66" s="8"/>
-      <c r="Q66" s="20"/>
+      <c r="Q66" s="19"/>
     </row>
     <row r="67" spans="3:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C67" s="34" t="s">
+      <c r="C67" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="D67" s="35" t="s">
+      <c r="D67" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="E67" s="36">
-        <v>1</v>
-      </c>
-      <c r="F67" s="77"/>
+      <c r="E67" s="35">
+        <v>1</v>
+      </c>
+      <c r="F67" s="76"/>
       <c r="G67" s="9">
         <f t="shared" ref="G67:G70" si="13">IF(AND(F67="u",F67="U"),0,E67)</f>
         <v>1</v>
@@ -4295,19 +4300,19 @@
         <v>1</v>
       </c>
       <c r="L67" s="8"/>
-      <c r="Q67" s="20"/>
+      <c r="Q67" s="19"/>
     </row>
     <row r="68" spans="3:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C68" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D68" s="38" t="s">
+      <c r="D68" s="37" t="s">
         <v>106</v>
       </c>
       <c r="E68" s="5">
         <v>1</v>
       </c>
-      <c r="F68" s="77"/>
+      <c r="F68" s="76"/>
       <c r="G68" s="9">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -4320,7 +4325,7 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="Q68" s="20"/>
+      <c r="Q68" s="19"/>
     </row>
     <row r="69" spans="3:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C69" s="6" t="s">
@@ -4332,7 +4337,7 @@
       <c r="E69" s="5">
         <v>1</v>
       </c>
-      <c r="F69" s="77"/>
+      <c r="F69" s="76"/>
       <c r="G69" s="9">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -4345,19 +4350,19 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="Q69" s="20"/>
+      <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="3:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C70" s="45" t="s">
+      <c r="C70" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="D70" s="46" t="s">
+      <c r="D70" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="E70" s="47">
-        <v>1</v>
-      </c>
-      <c r="F70" s="79"/>
+      <c r="E70" s="46">
+        <v>1</v>
+      </c>
+      <c r="F70" s="78"/>
       <c r="G70" s="9">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -4370,79 +4375,79 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="Q70" s="20"/>
+      <c r="Q70" s="19"/>
     </row>
     <row r="71" spans="3:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C71" s="33"/>
-      <c r="D71" s="51"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="50"/>
       <c r="E71" s="1">
         <f>SUM(E62:E70)</f>
         <v>16</v>
       </c>
-      <c r="F71" s="64"/>
+      <c r="F71" s="63"/>
       <c r="G71" s="1">
         <f>SUM(G62:G70)</f>
         <v>16</v>
       </c>
-      <c r="H71" s="57">
+      <c r="H71" s="56">
         <f>SUM(H62:H70)</f>
         <v>0</v>
       </c>
-      <c r="I71" s="57">
+      <c r="I71" s="56">
         <f>SUM(I62:I70)</f>
         <v>16</v>
       </c>
-      <c r="Q71" s="20"/>
+      <c r="Q71" s="19"/>
     </row>
     <row r="72" spans="3:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C72" s="91" t="s">
+      <c r="C72" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="D72" s="92"/>
-      <c r="E72" s="92"/>
-      <c r="F72" s="93"/>
+      <c r="D72" s="94"/>
+      <c r="E72" s="94"/>
+      <c r="F72" s="95"/>
       <c r="G72" s="1"/>
-      <c r="H72" s="57"/>
-      <c r="I72" s="57"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="56"/>
       <c r="L72" s="8"/>
-      <c r="Q72" s="20"/>
+      <c r="Q72" s="19"/>
     </row>
     <row r="73" spans="3:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C73" s="67" t="s">
+      <c r="C73" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="68" t="s">
+      <c r="D73" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="E73" s="68" t="s">
+      <c r="E73" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="F73" s="58" t="s">
+      <c r="F73" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="G73" s="86" t="s">
+      <c r="G73" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="H73" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="I73" s="26" t="s">
+      <c r="H73" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I73" s="25" t="s">
         <v>20</v>
       </c>
       <c r="L73" s="8"/>
-      <c r="Q73" s="20"/>
+      <c r="Q73" s="19"/>
     </row>
     <row r="74" spans="3:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C74" s="34" t="s">
+      <c r="C74" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="D74" s="35" t="s">
+      <c r="D74" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="E74" s="36">
+      <c r="E74" s="35">
         <v>4</v>
       </c>
-      <c r="F74" s="89"/>
+      <c r="F74" s="88"/>
       <c r="G74" s="9">
         <f t="shared" ref="G74:G77" si="15">IF(AND(F74="u",F74="U"),0,E74)</f>
         <v>4</v>
@@ -4456,19 +4461,19 @@
         <v>4</v>
       </c>
       <c r="L74" s="8"/>
-      <c r="Q74" s="20"/>
+      <c r="Q74" s="19"/>
     </row>
     <row r="75" spans="3:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C75" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D75" s="38" t="s">
+      <c r="D75" s="37" t="s">
         <v>125</v>
       </c>
       <c r="E75" s="5">
         <v>3</v>
       </c>
-      <c r="F75" s="89"/>
+      <c r="F75" s="88"/>
       <c r="G75" s="9">
         <f t="shared" si="15"/>
         <v>3</v>
@@ -4482,19 +4487,19 @@
         <v>3</v>
       </c>
       <c r="L75" s="8"/>
-      <c r="Q75" s="20"/>
+      <c r="Q75" s="19"/>
     </row>
     <row r="76" spans="3:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C76" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D76" s="38" t="s">
+      <c r="D76" s="37" t="s">
         <v>126</v>
       </c>
       <c r="E76" s="5">
         <v>4</v>
       </c>
-      <c r="F76" s="89"/>
+      <c r="F76" s="88"/>
       <c r="G76" s="9">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -4508,101 +4513,101 @@
         <v>4</v>
       </c>
       <c r="L76" s="8"/>
-      <c r="Q76" s="20"/>
+      <c r="Q76" s="19"/>
     </row>
     <row r="77" spans="3:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C77" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D77" s="41" t="s">
+      <c r="D77" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="E77" s="144">
-        <v>3</v>
-      </c>
-      <c r="F77" s="146"/>
-      <c r="G77" s="148">
+      <c r="E77" s="99">
+        <v>3</v>
+      </c>
+      <c r="F77" s="101"/>
+      <c r="G77" s="90">
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="H77" s="149" t="str">
+      <c r="H77" s="91" t="str">
         <f>IFERROR(VLOOKUP(F77,Table1[],2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I77" s="150">
+      <c r="I77" s="92">
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="L77" s="8"/>
-      <c r="Q77" s="20"/>
+      <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="3:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C78" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D78" s="84" t="s">
+      <c r="D78" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="E78" s="145"/>
-      <c r="F78" s="147"/>
-      <c r="G78" s="148"/>
-      <c r="H78" s="149"/>
-      <c r="I78" s="150"/>
+      <c r="E78" s="100"/>
+      <c r="F78" s="102"/>
+      <c r="G78" s="90"/>
+      <c r="H78" s="91"/>
+      <c r="I78" s="92"/>
       <c r="L78" s="8"/>
-      <c r="Q78" s="20"/>
+      <c r="Q78" s="19"/>
     </row>
     <row r="79" spans="3:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C79" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D79" s="84" t="s">
+      <c r="D79" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="E79" s="144">
-        <v>3</v>
-      </c>
-      <c r="F79" s="146"/>
-      <c r="G79" s="148">
+      <c r="E79" s="99">
+        <v>3</v>
+      </c>
+      <c r="F79" s="101"/>
+      <c r="G79" s="90">
         <f t="shared" ref="G79:G81" si="17">IF(AND(F79="u",F79="U"),0,E79)</f>
         <v>3</v>
       </c>
-      <c r="H79" s="149" t="str">
+      <c r="H79" s="91" t="str">
         <f>IFERROR(VLOOKUP(F79,Table1[],2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I79" s="150">
+      <c r="I79" s="92">
         <f t="shared" ref="I79:I81" si="18">PRODUCT(E79,H79)</f>
         <v>3</v>
       </c>
       <c r="L79" s="8"/>
-      <c r="Q79" s="20"/>
+      <c r="Q79" s="19"/>
     </row>
     <row r="80" spans="3:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C80" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D80" s="84" t="s">
+      <c r="D80" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="E80" s="145"/>
-      <c r="F80" s="147"/>
-      <c r="G80" s="148"/>
-      <c r="H80" s="149"/>
-      <c r="I80" s="150"/>
+      <c r="E80" s="100"/>
+      <c r="F80" s="102"/>
+      <c r="G80" s="90"/>
+      <c r="H80" s="91"/>
+      <c r="I80" s="92"/>
       <c r="L80" s="8"/>
-      <c r="Q80" s="20"/>
+      <c r="Q80" s="19"/>
     </row>
     <row r="81" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="40" t="s">
+      <c r="C81" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="D81" s="84" t="s">
+      <c r="D81" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="E81" s="42">
-        <v>3</v>
-      </c>
-      <c r="F81" s="89"/>
+      <c r="E81" s="41">
+        <v>3</v>
+      </c>
+      <c r="F81" s="88"/>
       <c r="G81" s="9">
         <f t="shared" si="17"/>
         <v>3</v>
@@ -4616,32 +4621,32 @@
         <v>3</v>
       </c>
       <c r="L81" s="8"/>
-      <c r="Q81" s="20"/>
+      <c r="Q81" s="19"/>
     </row>
     <row r="82" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C82" s="94" t="s">
+      <c r="C82" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="D82" s="95"/>
-      <c r="E82" s="95"/>
-      <c r="F82" s="96"/>
+      <c r="D82" s="97"/>
+      <c r="E82" s="97"/>
+      <c r="F82" s="98"/>
       <c r="G82" s="9"/>
       <c r="H82" s="10"/>
       <c r="I82" s="11"/>
       <c r="L82" s="8"/>
-      <c r="Q82" s="20"/>
+      <c r="Q82" s="19"/>
     </row>
     <row r="83" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C83" s="34" t="s">
+      <c r="C83" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="D83" s="35" t="s">
+      <c r="D83" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="E83" s="36">
+      <c r="E83" s="35">
         <v>2</v>
       </c>
-      <c r="F83" s="89"/>
+      <c r="F83" s="88"/>
       <c r="G83" s="9">
         <f t="shared" ref="G83:G85" si="19">IF(AND(F83="u",F83="U"),0,E83)</f>
         <v>2</v>
@@ -4655,19 +4660,19 @@
         <v>2</v>
       </c>
       <c r="L83" s="8"/>
-      <c r="Q83" s="20"/>
+      <c r="Q83" s="19"/>
     </row>
     <row r="84" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C84" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D84" s="38" t="s">
+      <c r="D84" s="37" t="s">
         <v>106</v>
       </c>
       <c r="E84" s="5">
         <v>2</v>
       </c>
-      <c r="F84" s="89"/>
+      <c r="F84" s="88"/>
       <c r="G84" s="9">
         <f t="shared" si="19"/>
         <v>2</v>
@@ -4681,19 +4686,19 @@
         <v>2</v>
       </c>
       <c r="L84" s="8"/>
-      <c r="Q84" s="20"/>
+      <c r="Q84" s="19"/>
     </row>
     <row r="85" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C85" s="45" t="s">
+      <c r="C85" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="D85" s="46" t="s">
+      <c r="D85" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="E85" s="47">
-        <v>1</v>
-      </c>
-      <c r="F85" s="90"/>
+      <c r="E85" s="46">
+        <v>1</v>
+      </c>
+      <c r="F85" s="89"/>
       <c r="G85" s="9">
         <f t="shared" si="19"/>
         <v>1</v>
@@ -4707,174 +4712,174 @@
         <v>1</v>
       </c>
       <c r="L85" s="8"/>
-      <c r="Q85" s="20"/>
+      <c r="Q85" s="19"/>
     </row>
     <row r="86" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C86" s="33"/>
-      <c r="D86" s="51"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="50"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="64"/>
+      <c r="F86" s="63"/>
       <c r="G86" s="1">
         <f>SUM(G74:G85)</f>
         <v>25</v>
       </c>
-      <c r="H86" s="57">
+      <c r="H86" s="56">
         <f>SUM(H74:H85)</f>
         <v>0</v>
       </c>
-      <c r="I86" s="57">
+      <c r="I86" s="56">
         <f>SUM(I74:I85)</f>
         <v>25</v>
       </c>
       <c r="L86" s="8"/>
-      <c r="Q86" s="20"/>
+      <c r="Q86" s="19"/>
     </row>
     <row r="87" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C87" s="33"/>
-      <c r="D87" s="51"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="50"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="64"/>
-      <c r="G87" s="87"/>
-      <c r="H87" s="88"/>
-      <c r="I87" s="88"/>
+      <c r="F87" s="63"/>
+      <c r="G87" s="86"/>
+      <c r="H87" s="87"/>
+      <c r="I87" s="87"/>
       <c r="L87" s="8"/>
-      <c r="Q87" s="20"/>
+      <c r="Q87" s="19"/>
     </row>
     <row r="88" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C88" s="33"/>
-      <c r="D88" s="51"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="50"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="64"/>
-      <c r="G88" s="87"/>
-      <c r="H88" s="88"/>
-      <c r="I88" s="88"/>
+      <c r="F88" s="63"/>
+      <c r="G88" s="86"/>
+      <c r="H88" s="87"/>
+      <c r="I88" s="87"/>
       <c r="L88" s="8"/>
-      <c r="Q88" s="20"/>
+      <c r="Q88" s="19"/>
     </row>
     <row r="89" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C89" s="33"/>
-      <c r="D89" s="51"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="50"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="64"/>
+      <c r="F89" s="63"/>
       <c r="G89" s="1"/>
-      <c r="H89" s="57"/>
-      <c r="I89" s="57"/>
+      <c r="H89" s="56"/>
+      <c r="I89" s="56"/>
       <c r="L89" s="8"/>
-      <c r="Q89" s="20"/>
+      <c r="Q89" s="19"/>
     </row>
     <row r="90" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C90" s="33"/>
-      <c r="D90" s="51"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="50"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="64"/>
+      <c r="F90" s="63"/>
       <c r="G90" s="1"/>
-      <c r="H90" s="57"/>
-      <c r="I90" s="57"/>
+      <c r="H90" s="56"/>
+      <c r="I90" s="56"/>
       <c r="L90" s="8"/>
-      <c r="Q90" s="20"/>
+      <c r="Q90" s="19"/>
     </row>
     <row r="91" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C91" s="33"/>
-      <c r="D91" s="51"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="50"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="64"/>
+      <c r="F91" s="63"/>
       <c r="G91" s="1"/>
-      <c r="H91" s="57"/>
-      <c r="I91" s="57"/>
+      <c r="H91" s="56"/>
+      <c r="I91" s="56"/>
       <c r="L91" s="8"/>
-      <c r="Q91" s="20"/>
+      <c r="Q91" s="19"/>
     </row>
     <row r="92" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C92" s="33"/>
-      <c r="D92" s="51"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="50"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="64"/>
+      <c r="F92" s="63"/>
       <c r="G92" s="1"/>
-      <c r="H92" s="57"/>
-      <c r="I92" s="57"/>
+      <c r="H92" s="56"/>
+      <c r="I92" s="56"/>
       <c r="L92" s="8"/>
-      <c r="Q92" s="20"/>
+      <c r="Q92" s="19"/>
     </row>
     <row r="93" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C93" s="33"/>
-      <c r="D93" s="51"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="50"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="64"/>
+      <c r="F93" s="63"/>
       <c r="G93" s="1"/>
-      <c r="H93" s="57"/>
-      <c r="I93" s="57"/>
+      <c r="H93" s="56"/>
+      <c r="I93" s="56"/>
       <c r="L93" s="8"/>
-      <c r="Q93" s="20"/>
+      <c r="Q93" s="19"/>
     </row>
     <row r="94" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C94" s="33"/>
-      <c r="D94" s="51"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="50"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="64"/>
+      <c r="F94" s="63"/>
       <c r="G94" s="1"/>
-      <c r="H94" s="57"/>
-      <c r="I94" s="57"/>
+      <c r="H94" s="56"/>
+      <c r="I94" s="56"/>
       <c r="L94" s="8"/>
-      <c r="Q94" s="20"/>
+      <c r="Q94" s="19"/>
     </row>
     <row r="95" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C95" s="33"/>
-      <c r="D95" s="51"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="50"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="64"/>
+      <c r="F95" s="63"/>
       <c r="G95" s="1"/>
-      <c r="H95" s="57"/>
-      <c r="I95" s="57"/>
+      <c r="H95" s="56"/>
+      <c r="I95" s="56"/>
       <c r="L95" s="8"/>
-      <c r="Q95" s="20"/>
+      <c r="Q95" s="19"/>
     </row>
     <row r="96" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B96" s="21"/>
-      <c r="C96" s="21"/>
-      <c r="D96" s="21"/>
-      <c r="E96" s="21"/>
-      <c r="F96" s="21"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
       <c r="G96" s="1"/>
-      <c r="H96" s="57"/>
-      <c r="I96" s="57"/>
-      <c r="J96" s="21"/>
+      <c r="H96" s="56"/>
+      <c r="I96" s="56"/>
+      <c r="J96" s="20"/>
       <c r="L96" s="8"/>
-      <c r="M96" s="21"/>
-      <c r="Q96" s="20"/>
+      <c r="M96" s="20"/>
+      <c r="Q96" s="19"/>
     </row>
     <row r="97" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="65"/>
-      <c r="B97" s="65"/>
-      <c r="C97" s="65"/>
-      <c r="D97" s="65"/>
-      <c r="E97" s="65"/>
-      <c r="F97" s="65"/>
+      <c r="A97" s="64"/>
+      <c r="B97" s="64"/>
+      <c r="C97" s="64"/>
+      <c r="D97" s="64"/>
+      <c r="E97" s="64"/>
+      <c r="F97" s="64"/>
       <c r="G97" s="1"/>
-      <c r="H97" s="57"/>
-      <c r="I97" s="57"/>
-      <c r="J97" s="65"/>
-      <c r="M97" s="65"/>
-      <c r="N97" s="65"/>
-      <c r="O97" s="65"/>
-      <c r="P97" s="65"/>
-      <c r="Q97" s="65"/>
+      <c r="H97" s="56"/>
+      <c r="I97" s="56"/>
+      <c r="J97" s="64"/>
+      <c r="M97" s="64"/>
+      <c r="N97" s="64"/>
+      <c r="O97" s="64"/>
+      <c r="P97" s="64"/>
+      <c r="Q97" s="64"/>
     </row>
     <row r="98" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G98" s="1"/>
-      <c r="H98" s="57"/>
-      <c r="I98" s="57"/>
-      <c r="K98" s="65"/>
-      <c r="L98" s="66"/>
+      <c r="H98" s="56"/>
+      <c r="I98" s="56"/>
+      <c r="K98" s="64"/>
+      <c r="L98" s="65"/>
     </row>
     <row r="99" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G99" s="21"/>
-      <c r="H99" s="21"/>
-      <c r="I99" s="21"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G100" s="65"/>
-      <c r="H100" s="65"/>
-      <c r="I100" s="65"/>
+      <c r="G100" s="64"/>
+      <c r="H100" s="64"/>
+      <c r="I100" s="64"/>
       <c r="L100" s="8"/>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
@@ -4917,6 +4922,7 @@
       <c r="L113" s="8"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="F49:F53 F55:F58 F67:F70 F62:F65 F74:F81 F83:F85" name="SEM 4"/>
     <protectedRange sqref="F29:G29 F17:G20 G24:G28 G31:G32 G36:G41 G43:G45 G49:G53 G55:G58 F11:G15 G67:G70 G62:G65 G74:G77 G79:G85" name="SEM 1"/>
@@ -4924,24 +4930,6 @@
     <protectedRange sqref="F36:F41 F43:F45" name="SEM 3"/>
   </protectedRanges>
   <mergeCells count="34">
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="C72:F72"/>
-    <mergeCell ref="C82:F82"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="A1:A6"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="B4:Q6"/>
-    <mergeCell ref="B1:Q3"/>
     <mergeCell ref="C60:F60"/>
     <mergeCell ref="C66:F66"/>
     <mergeCell ref="K10:L10"/>
@@ -4958,6 +4946,24 @@
     <mergeCell ref="L20:L21"/>
     <mergeCell ref="G15:I16"/>
     <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="A1:A6"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="B4:Q6"/>
+    <mergeCell ref="B1:Q3"/>
+    <mergeCell ref="C72:F72"/>
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <conditionalFormatting sqref="L24:L29">
